--- a/data/trans_bre/P14B23-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P14B23-Clase-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>1.975329134228991</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.31735458451455</v>
+        <v>3.317354584514548</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.6438979002950524</v>
@@ -627,7 +627,7 @@
         <v>2.177482743836584</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>1.67728053818261</v>
+        <v>1.677280538182609</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.155813995735768</v>
+        <v>-1.160043360439773</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1624329899334715</v>
+        <v>0.2071553531810456</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.917987589746899</v>
+        <v>1.199572717089032</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.6992556421209805</v>
+        <v>-0.7132091844799269</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2077125110151556</v>
+        <v>-0.2265916040421372</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1015092505103185</v>
+        <v>0.2726888983366187</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.411290900473892</v>
+        <v>3.898986932630685</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.426175137924913</v>
+        <v>4.389270258201591</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.558671370470611</v>
+        <v>5.728625148061689</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5.715537426580875</v>
+        <v>7.360549971238135</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>15.21808560070735</v>
+        <v>12.42637245220679</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.557776976438611</v>
+        <v>5.110708209325269</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>1.059172907995688</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4.4992076352576</v>
+        <v>4.499207635257601</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.6514433937969393</v>
@@ -709,7 +709,7 @@
         <v>0.8018399170713912</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.789903219901198</v>
+        <v>1.789903219901199</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.168685279934622</v>
+        <v>-0.8909190747990242</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.7697602228835938</v>
+        <v>-0.9919838293427448</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.992695221970136</v>
+        <v>1.905347039991227</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4704459185661629</v>
+        <v>-0.3751193329649452</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5047858042652513</v>
+        <v>-0.5765905664908227</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4946880630407868</v>
+        <v>0.4433038635460459</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.956819588582525</v>
+        <v>4.397844950540239</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.438680926405903</v>
+        <v>3.102444154087678</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.120906772497213</v>
+        <v>7.106239065287618</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.032391937045513</v>
+        <v>4.19452238652943</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.930887855239726</v>
+        <v>5.269871858801244</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.57129963064165</v>
+        <v>4.224472360826073</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>7.74393862610952</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.343997577965182</v>
+        <v>5.343997577965181</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>1.019616810606925</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.080887397238272</v>
+        <v>0.7343109684366039</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.833984552883423</v>
+        <v>3.772171441688202</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.342708100672089</v>
+        <v>1.491978789795079</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.1563833847533978</v>
+        <v>0.0982725598089956</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.578753385261009</v>
+        <v>1.843567714835899</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1876796254881314</v>
+        <v>0.2416036915177872</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.59826629056727</v>
+        <v>8.644704628762263</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.13023593042491</v>
+        <v>13.35029246467263</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.609366667731051</v>
+        <v>9.38656200497396</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>2.698441041812062</v>
+        <v>2.647856655355838</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>17.13205717880168</v>
+        <v>20.34594614105038</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.657493281548219</v>
+        <v>2.481837194276051</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>2.310265647650662</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3.192131866226475</v>
+        <v>3.192131866226473</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.395063913553998</v>
@@ -873,7 +873,7 @@
         <v>0.8672816408038224</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.718458750708442</v>
+        <v>0.7184587507084413</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.057343464710371</v>
+        <v>2.033315008822828</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5841219528643372</v>
+        <v>0.6341873292873459</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.366168454152988</v>
+        <v>1.226882471934995</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5250162692255018</v>
+        <v>0.5333683284366049</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1596607897212436</v>
+        <v>0.1700307271965087</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2481895976329513</v>
+        <v>0.2121837470677331</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.361913155575212</v>
+        <v>6.20605279737082</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.262988834476594</v>
+        <v>4.172913311364671</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.13150204470423</v>
+        <v>5.140738742490464</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.890279317766557</v>
+        <v>2.834630568912523</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.063393973733071</v>
+        <v>2.000716252712751</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.450936307430315</v>
+        <v>1.445739812813227</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>6.63207226552082</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.884554925884612</v>
+        <v>5.884554925884615</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>5.571236125520153</v>
@@ -955,7 +955,7 @@
         <v>2.148590020902796</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>1.367258597341881</v>
+        <v>1.367258597341882</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.973406030801596</v>
+        <v>6.766113499867155</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.843196910068385</v>
+        <v>4.203512062598401</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.570880778992998</v>
+        <v>3.543053971571549</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>2.37486523908775</v>
+        <v>2.263777327666216</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9257959716594861</v>
+        <v>0.8937429967147822</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.572915705368949</v>
+        <v>0.5911089497039574</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.96823938963843</v>
+        <v>12.15477782146865</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.360704328131295</v>
+        <v>9.512129632496665</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.184272436032025</v>
+        <v>8.059309422805216</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13.22349544448072</v>
+        <v>13.5299500604529</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4.215326528399998</v>
+        <v>4.289061677229615</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.843858477100576</v>
+        <v>2.722932910457177</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>8.082753219712535</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3.46452879461527</v>
+        <v>3.464528794615272</v>
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>24.39460700082198</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7749308362040416</v>
+        <v>0.7749308362040421</v>
       </c>
     </row>
     <row r="20">
@@ -1050,18 +1050,18 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>8.030148106051231</v>
+        <v>7.849422693209601</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.184611167217954</v>
+        <v>6.322411462982839</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.723786169653273</v>
+        <v>-1.611252456962401</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.2643913455137529</v>
+        <v>-0.2293350008576464</v>
       </c>
     </row>
     <row r="21">
@@ -1072,18 +1072,18 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>11.58481808958891</v>
+        <v>11.45386278440551</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.885523360329186</v>
+        <v>10.03124489542646</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.452486473205566</v>
+        <v>6.720455528766747</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>2.99997654978513</v>
+        <v>3.024803475297241</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>4.761121846087134</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.213955851567156</v>
+        <v>4.213955851567157</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>2.312297227447794</v>
@@ -1113,7 +1113,7 @@
         <v>2.409864393087131</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1.102020783529088</v>
+        <v>1.102020783529089</v>
       </c>
     </row>
     <row r="23">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.610317198067866</v>
+        <v>4.548086884372092</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.747514798022411</v>
+        <v>3.776744395664567</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.240283215551373</v>
+        <v>3.072950718751986</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1.648834265665512</v>
+        <v>1.586244500965979</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1.551950363924672</v>
+        <v>1.60392891719927</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7274235678958174</v>
+        <v>0.6766006414392156</v>
       </c>
     </row>
     <row r="24">
@@ -1150,22 +1150,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.754684835624243</v>
+        <v>6.726324031514916</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.763108856376302</v>
+        <v>5.803752779076983</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.28331718826043</v>
+        <v>5.234910746583669</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>3.453590357896042</v>
+        <v>3.245806504260751</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3.421790508257078</v>
+        <v>3.52194873647905</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.592251494088332</v>
+        <v>1.6100983128778</v>
       </c>
     </row>
     <row r="25">
